--- a/result/basic_statistics/raw/basic_statistics.xlsx
+++ b/result/basic_statistics/raw/basic_statistics.xlsx
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.06</v>
+        <v>27.1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.43</v>
+        <v>14.46</v>
       </c>
       <c r="D2" t="n">
         <v>1.07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.52</v>
+        <v>43.66</v>
       </c>
       <c r="C3" t="n">
-        <v>26.09</v>
+        <v>26.12</v>
       </c>
       <c r="D3" t="n">
         <v>1.34</v>
       </c>
       <c r="E3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.69</v>
+        <v>53.9</v>
       </c>
       <c r="C4" t="n">
-        <v>53.68</v>
+        <v>53.79</v>
       </c>
       <c r="D4" t="n">
         <v>0.98</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.36</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.75</v>
       </c>
       <c r="D5" t="n">
         <v>0.83</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="F5" t="n">
         <v>2.4</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.4</v>
+        <v>45.54</v>
       </c>
       <c r="C6" t="n">
-        <v>26.54</v>
+        <v>26.56</v>
       </c>
       <c r="D6" t="n">
         <v>1.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.82</v>
+        <v>42.94</v>
       </c>
       <c r="C7" t="n">
-        <v>25.78</v>
+        <v>25.81</v>
       </c>
       <c r="D7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="E7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.13</v>
+        <v>42.26</v>
       </c>
       <c r="C8" t="n">
-        <v>36.12</v>
+        <v>36.19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.72</v>
+        <v>40.85</v>
       </c>
       <c r="C9" t="n">
-        <v>23.55</v>
+        <v>23.58</v>
       </c>
       <c r="D9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="E9" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.43000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="C10" t="n">
-        <v>51.77</v>
+        <v>51.87</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.75</v>
+        <v>43.9</v>
       </c>
       <c r="C11" t="n">
-        <v>25.87</v>
+        <v>25.89</v>
       </c>
       <c r="D11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="E11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.5</v>
+        <v>52.63</v>
       </c>
       <c r="C12" t="n">
-        <v>44.78</v>
+        <v>44.88</v>
       </c>
       <c r="D12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -848,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="I12" t="n">
-        <v>162</v>
+        <v>162.55</v>
       </c>
       <c r="J12" t="n">
         <v>234</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.63</v>
+        <v>105.32</v>
       </c>
       <c r="C13" t="n">
-        <v>96.31999999999999</v>
+        <v>96.34</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>67.2</v>
+        <v>72</v>
       </c>
       <c r="I13" t="n">
         <v>324</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.85</v>
+        <v>50.98</v>
       </c>
       <c r="C14" t="n">
-        <v>53.98</v>
+        <v>54.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.15</v>
+        <v>44.29</v>
       </c>
       <c r="C15" t="n">
-        <v>25.89</v>
+        <v>25.91</v>
       </c>
       <c r="D15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
@@ -963,16 +963,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.97</v>
+        <v>90.12</v>
       </c>
       <c r="C16" t="n">
-        <v>79.81</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0.96</v>
       </c>
       <c r="E16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F16" t="n">
         <v>2.4</v>
@@ -984,7 +984,7 @@
         <v>67.2</v>
       </c>
       <c r="I16" t="n">
-        <v>280.8</v>
+        <v>283.2</v>
       </c>
       <c r="J16" t="n">
         <v>374.4</v>
@@ -997,16 +997,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.52</v>
+        <v>41.67</v>
       </c>
       <c r="C17" t="n">
-        <v>25.29</v>
+        <v>25.32</v>
       </c>
       <c r="D17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="E17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.45</v>
+        <v>45.59</v>
       </c>
       <c r="C18" t="n">
-        <v>25.9</v>
+        <v>25.92</v>
       </c>
       <c r="D18" t="n">
         <v>1.36</v>
       </c>
       <c r="E18" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="I18" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J18" t="n">
         <v>195</v>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.52</v>
+        <v>49.73</v>
       </c>
       <c r="C19" t="n">
-        <v>45.15</v>
+        <v>45.24</v>
       </c>
       <c r="D19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="E19" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.85</v>
+        <v>42.98</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>25.32</v>
       </c>
       <c r="D20" t="n">
         <v>1.35</v>
       </c>
       <c r="E20" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.22</v>
+        <v>44.37</v>
       </c>
       <c r="C21" t="n">
-        <v>26.11</v>
+        <v>26.13</v>
       </c>
       <c r="D21" t="n">
         <v>1.39</v>
       </c>
       <c r="E21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.33</v>
+        <v>50.47</v>
       </c>
       <c r="C22" t="n">
-        <v>29.28</v>
+        <v>29.31</v>
       </c>
       <c r="D22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E22" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.06</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>60.03</v>
+        <v>60.13</v>
       </c>
       <c r="D23" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1235,16 +1235,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.59</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>76.42</v>
+        <v>76.58</v>
       </c>
       <c r="D24" t="n">
         <v>0.97</v>
       </c>
       <c r="E24" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.37</v>
+        <v>20.5</v>
       </c>
       <c r="C25" t="n">
         <v>18.4</v>
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.65</v>
+        <v>13.73</v>
       </c>
       <c r="C26" t="n">
-        <v>12.69</v>
+        <v>12.71</v>
       </c>
       <c r="D26" t="n">
         <v>1.79</v>
       </c>
       <c r="E26" t="n">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.31</v>
+        <v>24.47</v>
       </c>
       <c r="C34" t="n">
-        <v>17.46</v>
+        <v>17.42</v>
       </c>
       <c r="D34" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="E34" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.72</v>
+        <v>30.93</v>
       </c>
       <c r="C35" t="n">
-        <v>22.8</v>
+        <v>22.74</v>
       </c>
       <c r="D35" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="E35" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1643,16 +1643,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.29</v>
+        <v>20.41</v>
       </c>
       <c r="C36" t="n">
-        <v>15.18</v>
+        <v>15.16</v>
       </c>
       <c r="D36" t="n">
         <v>1.76</v>
       </c>
       <c r="E36" t="n">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>45.49</v>
+        <v>45.62</v>
       </c>
       <c r="C38" t="n">
-        <v>29.93</v>
+        <v>29.98</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="E38" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F38" t="n">
         <v>6</v>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60.47</v>
+        <v>60.62</v>
       </c>
       <c r="C39" t="n">
-        <v>32.73</v>
+        <v>32.75</v>
       </c>
       <c r="D39" t="n">
         <v>1.05</v>
       </c>
       <c r="E39" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F39" t="n">
         <v>12</v>
@@ -1779,22 +1779,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.32</v>
+        <v>27.38</v>
       </c>
       <c r="C40" t="n">
-        <v>14.57</v>
+        <v>14.59</v>
       </c>
       <c r="D40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E40" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>7.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>24</v>
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62.41</v>
+        <v>62.55</v>
       </c>
       <c r="C41" t="n">
-        <v>33.09</v>
+        <v>33.1</v>
       </c>
       <c r="D41" t="n">
         <v>1.07</v>
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.21</v>
+        <v>52.31</v>
       </c>
       <c r="C42" t="n">
-        <v>26.56</v>
+        <v>26.57</v>
       </c>
       <c r="D42" t="n">
         <v>0.98</v>
@@ -1881,16 +1881,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.02</v>
+        <v>66.17</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>35.03</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F43" t="n">
         <v>12</v>
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
+        <v>60.12</v>
       </c>
       <c r="C44" t="n">
-        <v>33.21</v>
+        <v>33.24</v>
       </c>
       <c r="D44" t="n">
         <v>1.12</v>
       </c>
       <c r="E44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="F44" t="n">
         <v>12</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>15.83</v>
       </c>
       <c r="H44" t="n">
         <v>54</v>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61.49</v>
+        <v>61.64</v>
       </c>
       <c r="C45" t="n">
-        <v>30.2</v>
+        <v>30.22</v>
       </c>
       <c r="D45" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E45" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F45" t="n">
         <v>12</v>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.62</v>
+        <v>151.95</v>
       </c>
       <c r="C46" t="n">
-        <v>66.69</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D46" t="n">
         <v>0.83</v>
       </c>
       <c r="E46" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F46" t="n">
         <v>42</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>127.99</v>
+        <v>128.18</v>
       </c>
       <c r="C47" t="n">
-        <v>47.21</v>
+        <v>47.27</v>
       </c>
       <c r="D47" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="F47" t="n">
         <v>24</v>
@@ -2051,10 +2051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>45.85</v>
+        <v>45.95</v>
       </c>
       <c r="C48" t="n">
-        <v>25.55</v>
+        <v>25.56</v>
       </c>
       <c r="D48" t="n">
         <v>1.01</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47.33</v>
+        <v>47.53</v>
       </c>
       <c r="C49" t="n">
-        <v>34.81</v>
+        <v>34.86</v>
       </c>
       <c r="D49" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="E49" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="F49" t="n">
         <v>7.2</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>19.56</v>
+        <v>19.63</v>
       </c>
       <c r="C50" t="n">
         <v>10.48</v>
@@ -2128,7 +2128,7 @@
         <v>1.16</v>
       </c>
       <c r="E50" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="F50" t="n">
         <v>4.5</v>
@@ -2140,7 +2140,7 @@
         <v>16.5</v>
       </c>
       <c r="I50" t="n">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="J50" t="n">
         <v>87</v>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32.28</v>
+        <v>32.37</v>
       </c>
       <c r="C51" t="n">
-        <v>19.58</v>
+        <v>19.61</v>
       </c>
       <c r="D51" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E51" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="F51" t="n">
         <v>6</v>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38.84</v>
+        <v>38.96</v>
       </c>
       <c r="C52" t="n">
-        <v>26.24</v>
+        <v>26.28</v>
       </c>
       <c r="D52" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="E52" t="n">
-        <v>10.61</v>
+        <v>10.58</v>
       </c>
       <c r="F52" t="n">
         <v>7.2</v>
@@ -2221,16 +2221,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>38.41</v>
+        <v>38.53</v>
       </c>
       <c r="C53" t="n">
-        <v>23.14</v>
+        <v>23.17</v>
       </c>
       <c r="D53" t="n">
         <v>1.34</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="F53" t="n">
         <v>7.2</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26.39</v>
+        <v>26.44</v>
       </c>
       <c r="C54" t="n">
-        <v>20.86</v>
+        <v>20.92</v>
       </c>
       <c r="D54" t="n">
         <v>1.09</v>
       </c>
       <c r="E54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>62.61</v>
+        <v>62.82</v>
       </c>
       <c r="C55" t="n">
-        <v>35.28</v>
+        <v>35.31</v>
       </c>
       <c r="D55" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="E55" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="F55" t="n">
         <v>12</v>
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27.45</v>
+        <v>27.55</v>
       </c>
       <c r="C56" t="n">
-        <v>15.9</v>
+        <v>15.91</v>
       </c>
       <c r="D56" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="E56" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F56" t="n">
         <v>6</v>
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27.75</v>
+        <v>27.84</v>
       </c>
       <c r="C57" t="n">
         <v>15.87</v>
@@ -2366,7 +2366,7 @@
         <v>1.16</v>
       </c>
       <c r="E57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F57" t="n">
         <v>6</v>
@@ -2391,16 +2391,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>27.75</v>
+        <v>27.83</v>
       </c>
       <c r="C58" t="n">
-        <v>15.69</v>
+        <v>15.7</v>
       </c>
       <c r="D58" t="n">
         <v>1.19</v>
       </c>
       <c r="E58" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F58" t="n">
         <v>4.8</v>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16.35</v>
+        <v>16.42</v>
       </c>
       <c r="C59" t="n">
-        <v>9.41</v>
+        <v>9.42</v>
       </c>
       <c r="D59" t="n">
         <v>1.34</v>
       </c>
       <c r="E59" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
@@ -2443,7 +2443,7 @@
         <v>4.5</v>
       </c>
       <c r="H59" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="I59" t="n">
         <v>40.5</v>
@@ -2459,16 +2459,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.49</v>
+        <v>28.58</v>
       </c>
       <c r="C60" t="n">
-        <v>16.31</v>
+        <v>16.33</v>
       </c>
       <c r="D60" t="n">
         <v>1.25</v>
       </c>
       <c r="E60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="F60" t="n">
         <v>6</v>
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20.58</v>
+        <v>20.65</v>
       </c>
       <c r="C61" t="n">
         <v>11.08</v>
       </c>
       <c r="D61" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E61" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="F61" t="n">
         <v>4.5</v>
@@ -2527,16 +2527,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>24.15</v>
+        <v>24.2</v>
       </c>
       <c r="C62" t="n">
-        <v>12.98</v>
+        <v>12.99</v>
       </c>
       <c r="D62" t="n">
         <v>1.23</v>
       </c>
       <c r="E62" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="F62" t="n">
         <v>6</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20.27</v>
+        <v>20.34</v>
       </c>
       <c r="C63" t="n">
-        <v>10.92</v>
+        <v>10.93</v>
       </c>
       <c r="D63" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="E63" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="F63" t="n">
         <v>4.5</v>
@@ -2582,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="I63" t="n">
-        <v>47.74</v>
+        <v>48</v>
       </c>
       <c r="J63" t="n">
         <v>78</v>
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>33.65</v>
+        <v>33.7</v>
       </c>
       <c r="C64" t="n">
-        <v>19.1</v>
+        <v>19.11</v>
       </c>
       <c r="D64" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="E64" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="F64" t="n">
         <v>7.2</v>
@@ -2629,16 +2629,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30.92</v>
+        <v>31.02</v>
       </c>
       <c r="C65" t="n">
-        <v>18.96</v>
+        <v>18.98</v>
       </c>
       <c r="D65" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="E65" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F65" t="n">
         <v>7.2</v>
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>57.99</v>
+        <v>58.17</v>
       </c>
       <c r="C66" t="n">
-        <v>32.56</v>
+        <v>32.59</v>
       </c>
       <c r="D66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E66" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F66" t="n">
         <v>12</v>
@@ -2697,16 +2697,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33.76</v>
+        <v>33.88</v>
       </c>
       <c r="C67" t="n">
-        <v>20.69</v>
+        <v>20.71</v>
       </c>
       <c r="D67" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="E67" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="F67" t="n">
         <v>6</v>
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>35.67</v>
+        <v>35.81</v>
       </c>
       <c r="C68" t="n">
-        <v>22.13</v>
+        <v>22.15</v>
       </c>
       <c r="D68" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="E68" t="n">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="F68" t="n">
         <v>7.2</v>
@@ -2765,16 +2765,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>49.25</v>
+        <v>49.4</v>
       </c>
       <c r="C69" t="n">
-        <v>28.16</v>
+        <v>28.19</v>
       </c>
       <c r="D69" t="n">
         <v>1.3</v>
       </c>
       <c r="E69" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -2799,16 +2799,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C70" t="n">
-        <v>17.43</v>
+        <v>17.45</v>
       </c>
       <c r="D70" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F70" t="n">
         <v>6</v>
@@ -2833,16 +2833,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>41.47</v>
+        <v>41.62</v>
       </c>
       <c r="C71" t="n">
-        <v>22.78</v>
+        <v>22.8</v>
       </c>
       <c r="D71" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E71" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="F71" t="n">
         <v>9.6</v>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>34.98</v>
+        <v>35.07</v>
       </c>
       <c r="C72" t="n">
         <v>19.99</v>
@@ -2876,13 +2876,13 @@
         <v>1.16</v>
       </c>
       <c r="E72" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="F72" t="n">
         <v>7.2</v>
       </c>
       <c r="G72" t="n">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="H72" t="n">
         <v>31.2</v>
@@ -2901,16 +2901,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>28.29</v>
+        <v>28.37</v>
       </c>
       <c r="C73" t="n">
-        <v>15.6</v>
+        <v>15.61</v>
       </c>
       <c r="D73" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="E73" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F73" t="n">
         <v>6</v>
@@ -2935,16 +2935,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>32.2</v>
+        <v>32.31</v>
       </c>
       <c r="C74" t="n">
-        <v>18.22</v>
+        <v>18.24</v>
       </c>
       <c r="D74" t="n">
         <v>1.27</v>
       </c>
       <c r="E74" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="F74" t="n">
         <v>7.2</v>
@@ -2953,7 +2953,7 @@
         <v>9.6</v>
       </c>
       <c r="H74" t="n">
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="I74" t="n">
         <v>79.2</v>
@@ -2969,16 +2969,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>113.18</v>
+        <v>113.41</v>
       </c>
       <c r="C75" t="n">
-        <v>52.86</v>
+        <v>52.91</v>
       </c>
       <c r="D75" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E75" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F75" t="n">
         <v>30</v>
@@ -2990,7 +2990,7 @@
         <v>102</v>
       </c>
       <c r="I75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J75" t="n">
         <v>348</v>
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>82.33</v>
+        <v>82.48</v>
       </c>
       <c r="C76" t="n">
-        <v>40.03</v>
+        <v>40.09</v>
       </c>
       <c r="D76" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>134.22</v>
+        <v>134.47</v>
       </c>
       <c r="C77" t="n">
-        <v>61.73</v>
+        <v>61.77</v>
       </c>
       <c r="D77" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F77" t="n">
         <v>36</v>
       </c>
       <c r="G77" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H77" t="n">
         <v>124</v>
@@ -3071,16 +3071,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>145.78</v>
+        <v>146.07</v>
       </c>
       <c r="C78" t="n">
-        <v>68.78</v>
+        <v>68.88</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E78" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F78" t="n">
         <v>38.4</v>
@@ -3089,7 +3089,7 @@
         <v>50.4</v>
       </c>
       <c r="H78" t="n">
-        <v>132</v>
+        <v>134.4</v>
       </c>
       <c r="I78" t="n">
         <v>309.6</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>161.85</v>
+        <v>162.19</v>
       </c>
       <c r="C79" t="n">
-        <v>70.06999999999999</v>
+        <v>70.14</v>
       </c>
       <c r="D79" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E79" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>169.82</v>
+        <v>170.17</v>
       </c>
       <c r="C80" t="n">
-        <v>77.79000000000001</v>
+        <v>77.83</v>
       </c>
       <c r="D80" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E80" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F80" t="n">
         <v>50</v>
@@ -3173,16 +3173,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>177.54</v>
+        <v>177.87</v>
       </c>
       <c r="C81" t="n">
-        <v>76.41</v>
+        <v>76.42</v>
       </c>
       <c r="D81" t="n">
         <v>0.68</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F81" t="n">
         <v>19.2</v>
@@ -3191,7 +3191,7 @@
         <v>64.8</v>
       </c>
       <c r="H81" t="n">
-        <v>163.2</v>
+        <v>165.6</v>
       </c>
       <c r="I81" t="n">
         <v>352.8</v>
@@ -3207,16 +3207,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>223.19</v>
+        <v>223.66</v>
       </c>
       <c r="C82" t="n">
-        <v>108.65</v>
+        <v>108.77</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E82" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>64.69</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>34.21</v>
+        <v>34.25</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E83" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F83" t="n">
         <v>15</v>
@@ -3275,16 +3275,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>58.13</v>
+        <v>58.27</v>
       </c>
       <c r="C84" t="n">
-        <v>30.35</v>
+        <v>30.38</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E84" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F84" t="n">
         <v>15</v>
@@ -3296,7 +3296,7 @@
         <v>51</v>
       </c>
       <c r="I84" t="n">
-        <v>131.85</v>
+        <v>132</v>
       </c>
       <c r="J84" t="n">
         <v>219</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>70.23999999999999</v>
+        <v>70.41</v>
       </c>
       <c r="C85" t="n">
-        <v>36.8</v>
+        <v>36.84</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E85" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F85" t="n">
         <v>15</v>
@@ -3327,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="H85" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I85" t="n">
         <v>159</v>
@@ -3343,16 +3343,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>47.48</v>
+        <v>47.61</v>
       </c>
       <c r="C86" t="n">
-        <v>25.8</v>
+        <v>25.82</v>
       </c>
       <c r="D86" t="n">
         <v>1.07</v>
       </c>
       <c r="E86" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F86" t="n">
         <v>10</v>
@@ -3377,16 +3377,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>70.45999999999999</v>
+        <v>70.64</v>
       </c>
       <c r="C87" t="n">
-        <v>37.51</v>
+        <v>37.54</v>
       </c>
       <c r="D87" t="n">
         <v>1.06</v>
       </c>
       <c r="E87" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F87" t="n">
         <v>15</v>
@@ -3398,7 +3398,7 @@
         <v>63</v>
       </c>
       <c r="I87" t="n">
-        <v>159</v>
+        <v>160.95</v>
       </c>
       <c r="J87" t="n">
         <v>258</v>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>73.3</v>
+        <v>73.47</v>
       </c>
       <c r="C88" t="n">
-        <v>35.54</v>
+        <v>35.58</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E88" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F88" t="n">
         <v>18</v>
@@ -3445,16 +3445,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>71.84999999999999</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>36.93</v>
+        <v>36.96</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F89" t="n">
         <v>18</v>
@@ -3479,16 +3479,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>73.81999999999999</v>
+        <v>73.98</v>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>39.05</v>
       </c>
       <c r="D90" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E90" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="F90" t="n">
         <v>15</v>
@@ -3513,16 +3513,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>66.7</v>
+        <v>66.87</v>
       </c>
       <c r="C91" t="n">
-        <v>34.39</v>
+        <v>34.42</v>
       </c>
       <c r="D91" t="n">
         <v>0.97</v>
       </c>
       <c r="E91" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F91" t="n">
         <v>15</v>
@@ -3547,16 +3547,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>72.52</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>37.31</v>
+        <v>37.34</v>
       </c>
       <c r="D92" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F92" t="n">
         <v>15</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>14.23</v>
+        <v>14.27</v>
       </c>
       <c r="C93" t="n">
         <v>6.83</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7.83</v>
+        <v>7.85</v>
       </c>
       <c r="C94" t="n">
         <v>4.27</v>
@@ -3649,28 +3649,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>59.75</v>
+        <v>59.96</v>
       </c>
       <c r="C95" t="n">
-        <v>25.51</v>
+        <v>25.48</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F95" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="G95" t="n">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="H95" t="n">
-        <v>52.8</v>
+        <v>54.4</v>
       </c>
       <c r="I95" t="n">
-        <v>120</v>
+        <v>121.6</v>
       </c>
       <c r="J95" t="n">
         <v>203.2</v>
@@ -3683,16 +3683,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>11.1</v>
+        <v>11.12</v>
       </c>
       <c r="C96" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E96" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>72.73999999999999</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>39.97</v>
+        <v>40.01</v>
       </c>
       <c r="D97" t="n">
         <v>0.91</v>
       </c>
       <c r="E97" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F97" t="n">
         <v>15</v>
@@ -3751,16 +3751,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>63.04</v>
+        <v>63.26</v>
       </c>
       <c r="C98" t="n">
-        <v>31.33</v>
+        <v>31.35</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E98" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F98" t="n">
         <v>12</v>
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>88.33</v>
+        <v>88.56</v>
       </c>
       <c r="C99" t="n">
-        <v>45.94</v>
+        <v>45.99</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E99" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F99" t="n">
         <v>21</v>
@@ -3803,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="H99" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I99" t="n">
         <v>201</v>
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>94.06</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>46.49</v>
+        <v>46.52</v>
       </c>
       <c r="D100" t="n">
         <v>0.79</v>
       </c>
       <c r="E100" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F100" t="n">
         <v>21</v>
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>60.28</v>
+        <v>60.46</v>
       </c>
       <c r="C101" t="n">
         <v>29.33</v>
       </c>
       <c r="D101" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F101" t="n">
         <v>12</v>
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>86.81</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="E102" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F102" t="n">
         <v>18</v>
@@ -3921,16 +3921,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>117.86</v>
+        <v>118.05</v>
       </c>
       <c r="C103" t="n">
-        <v>46.93</v>
+        <v>47</v>
       </c>
       <c r="D103" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="F103" t="n">
         <v>24</v>
@@ -3955,10 +3955,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>141.22</v>
+        <v>141.54</v>
       </c>
       <c r="C104" t="n">
-        <v>59.43</v>
+        <v>59.45</v>
       </c>
       <c r="D104" t="n">
         <v>0.72</v>
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>104.69</v>
+        <v>104.98</v>
       </c>
       <c r="C105" t="n">
-        <v>49.76</v>
+        <v>49.78</v>
       </c>
       <c r="D105" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F105" t="n">
         <v>26.4</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>93.76000000000001</v>
+        <v>93.89</v>
       </c>
       <c r="C106" t="n">
-        <v>37.27</v>
+        <v>37.32</v>
       </c>
       <c r="D106" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F106" t="n">
         <v>33.6</v>
@@ -4091,16 +4091,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>45.96</v>
+        <v>46.1</v>
       </c>
       <c r="C108" t="n">
-        <v>24.11</v>
+        <v>24.12</v>
       </c>
       <c r="D108" t="n">
         <v>1.1</v>
       </c>
       <c r="E108" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F108" t="n">
         <v>12</v>
@@ -4125,16 +4125,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>42.1</v>
+        <v>42.22</v>
       </c>
       <c r="C109" t="n">
-        <v>24.12</v>
+        <v>24.14</v>
       </c>
       <c r="D109" t="n">
         <v>1.16</v>
       </c>
       <c r="E109" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="F109" t="n">
         <v>9</v>
@@ -4159,16 +4159,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>45.91</v>
+        <v>46.06</v>
       </c>
       <c r="C110" t="n">
-        <v>24.75</v>
+        <v>24.77</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E110" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>46.43</v>
+        <v>46.58</v>
       </c>
       <c r="C111" t="n">
-        <v>23.67</v>
+        <v>23.68</v>
       </c>
       <c r="D111" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E111" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4227,16 +4227,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>45.99</v>
+        <v>46.15</v>
       </c>
       <c r="C112" t="n">
         <v>25.18</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E112" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F112" t="n">
         <v>9</v>
@@ -4295,16 +4295,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>28.11</v>
+        <v>28.17</v>
       </c>
       <c r="C114" t="n">
-        <v>14.92</v>
+        <v>14.94</v>
       </c>
       <c r="D114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E114" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="F114" t="n">
         <v>6</v>
@@ -4329,16 +4329,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>22.96</v>
+        <v>23.04</v>
       </c>
       <c r="C115" t="n">
-        <v>13.52</v>
+        <v>13.53</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="E115" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F115" t="n">
         <v>4</v>
@@ -4363,16 +4363,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>35.29</v>
+        <v>35.39</v>
       </c>
       <c r="C116" t="n">
-        <v>18.83</v>
+        <v>18.85</v>
       </c>
       <c r="D116" t="n">
         <v>1.05</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="F116" t="n">
         <v>6</v>
@@ -4381,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="H116" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I116" t="n">
         <v>81</v>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>39.14</v>
+        <v>39.26</v>
       </c>
       <c r="C117" t="n">
         <v>19.92</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E117" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F117" t="n">
         <v>9</v>
@@ -4431,16 +4431,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>43.34</v>
+        <v>43.46</v>
       </c>
       <c r="C118" t="n">
-        <v>23.91</v>
+        <v>23.92</v>
       </c>
       <c r="D118" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="E118" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F118" t="n">
         <v>9</v>
@@ -4499,16 +4499,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>33.16</v>
+        <v>33.25</v>
       </c>
       <c r="C120" t="n">
-        <v>17.85</v>
+        <v>17.87</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E120" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>68.61</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>41.41</v>
+        <v>41.48</v>
       </c>
       <c r="D121" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E121" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F121" t="n">
         <v>6</v>
@@ -4567,19 +4567,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="C122" t="n">
         <v>13.62</v>
       </c>
       <c r="D122" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="E122" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
         <v>8</v>
@@ -4601,16 +4601,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>26.67</v>
+        <v>26.75</v>
       </c>
       <c r="C123" t="n">
-        <v>14.44</v>
+        <v>14.46</v>
       </c>
       <c r="D123" t="n">
         <v>1.25</v>
       </c>
       <c r="E123" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F123" t="n">
         <v>6</v>
@@ -4622,7 +4622,7 @@
         <v>24</v>
       </c>
       <c r="I123" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J123" t="n">
         <v>112</v>
@@ -4635,16 +4635,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>25.69</v>
+        <v>25.77</v>
       </c>
       <c r="C124" t="n">
-        <v>14.33</v>
+        <v>14.35</v>
       </c>
       <c r="D124" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E124" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F124" t="n">
         <v>6</v>
@@ -4669,16 +4669,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>35.71</v>
+        <v>35.79</v>
       </c>
       <c r="C125" t="n">
-        <v>18.52</v>
+        <v>18.54</v>
       </c>
       <c r="D125" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E125" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4703,16 +4703,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>35.6</v>
+        <v>35.71</v>
       </c>
       <c r="C126" t="n">
-        <v>20.32</v>
+        <v>20.34</v>
       </c>
       <c r="D126" t="n">
         <v>1.05</v>
       </c>
       <c r="E126" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F126" t="n">
         <v>6</v>
@@ -4737,22 +4737,22 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>67.45</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>34.7</v>
+        <v>34.77</v>
       </c>
       <c r="D127" t="n">
         <v>0.83</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>20.78</v>
+        <v>18</v>
       </c>
       <c r="H127" t="n">
         <v>60</v>
@@ -4771,16 +4771,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>23.66</v>
+        <v>23.73</v>
       </c>
       <c r="C128" t="n">
-        <v>13.11</v>
+        <v>13.12</v>
       </c>
       <c r="D128" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E128" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4839,16 +4839,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>44.11</v>
+        <v>44.24</v>
       </c>
       <c r="C130" t="n">
-        <v>24.64</v>
+        <v>24.66</v>
       </c>
       <c r="D130" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="E130" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F130" t="n">
         <v>9</v>
@@ -4873,16 +4873,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>42.81</v>
+        <v>42.93</v>
       </c>
       <c r="C131" t="n">
-        <v>23.86</v>
+        <v>23.88</v>
       </c>
       <c r="D131" t="n">
         <v>1.16</v>
       </c>
       <c r="E131" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="F131" t="n">
         <v>9</v>
@@ -4907,16 +4907,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>90.45999999999999</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>49.21</v>
+        <v>49.24</v>
       </c>
       <c r="D132" t="n">
         <v>0.92</v>
       </c>
       <c r="E132" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F132" t="n">
         <v>15</v>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>63.25</v>
+        <v>63.41</v>
       </c>
       <c r="C133" t="n">
-        <v>32.77</v>
+        <v>32.79</v>
       </c>
       <c r="D133" t="n">
         <v>1.11</v>
       </c>
       <c r="E133" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="F133" t="n">
         <v>15</v>
@@ -4975,16 +4975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>85.55</v>
+        <v>85.75</v>
       </c>
       <c r="C134" t="n">
-        <v>45.02</v>
+        <v>45.05</v>
       </c>
       <c r="D134" t="n">
         <v>0.95</v>
       </c>
       <c r="E134" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F134" t="n">
         <v>21</v>
@@ -4996,7 +4996,7 @@
         <v>78</v>
       </c>
       <c r="I134" t="n">
-        <v>192</v>
+        <v>192.3</v>
       </c>
       <c r="J134" t="n">
         <v>300</v>
@@ -5009,16 +5009,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>51.96</v>
+        <v>52.08</v>
       </c>
       <c r="C135" t="n">
-        <v>24.78</v>
+        <v>24.81</v>
       </c>
       <c r="D135" t="n">
         <v>0.9</v>
       </c>
       <c r="E135" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F135" t="n">
         <v>12</v>
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>62.36</v>
+        <v>62.49</v>
       </c>
       <c r="C136" t="n">
-        <v>30.41</v>
+        <v>30.43</v>
       </c>
       <c r="D136" t="n">
         <v>0.77</v>
@@ -5077,16 +5077,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>49.72</v>
+        <v>49.84</v>
       </c>
       <c r="C137" t="n">
-        <v>26.26</v>
+        <v>26.27</v>
       </c>
       <c r="D137" t="n">
         <v>1.05</v>
       </c>
       <c r="E137" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F137" t="n">
         <v>12</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>39.58</v>
+        <v>39.64</v>
       </c>
       <c r="C138" t="n">
-        <v>23.06</v>
+        <v>23.09</v>
       </c>
       <c r="D138" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E138" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="F138" t="n">
         <v>6</v>
@@ -5145,16 +5145,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>65.86</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>33.13</v>
+        <v>33.15</v>
       </c>
       <c r="D139" t="n">
         <v>0.98</v>
       </c>
       <c r="E139" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F139" t="n">
         <v>15</v>
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>57.73</v>
+        <v>57.88</v>
       </c>
       <c r="C140" t="n">
-        <v>30.53</v>
+        <v>30.54</v>
       </c>
       <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
         <v>1.01</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.02</v>
       </c>
       <c r="F140" t="n">
         <v>12</v>
@@ -5213,16 +5213,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>18.23</v>
+        <v>18.27</v>
       </c>
       <c r="C141" t="n">
-        <v>8.76</v>
+        <v>8.77</v>
       </c>
       <c r="D141" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="E141" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="F141" t="n">
         <v>3</v>
@@ -5247,16 +5247,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>83.16</v>
+        <v>83.37</v>
       </c>
       <c r="C142" t="n">
-        <v>43.35</v>
+        <v>43.39</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E142" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5281,16 +5281,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>55.31</v>
+        <v>55.48</v>
       </c>
       <c r="C143" t="n">
-        <v>27.15</v>
+        <v>27.16</v>
       </c>
       <c r="D143" t="n">
         <v>0.93</v>
       </c>
       <c r="E143" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F143" t="n">
         <v>14.4</v>
@@ -5315,16 +5315,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="C144" t="n">
-        <v>6.57</v>
+        <v>5.36</v>
       </c>
       <c r="D144" t="n">
-        <v>9.98</v>
+        <v>13.64</v>
       </c>
       <c r="E144" t="n">
-        <v>109.72</v>
+        <v>202.54</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5349,16 +5349,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>54.84</v>
+        <v>55.03</v>
       </c>
       <c r="C145" t="n">
         <v>26.86</v>
       </c>
       <c r="D145" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F145" t="n">
         <v>12</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>56.93</v>
+        <v>57.07</v>
       </c>
       <c r="C146" t="n">
         <v>27.05</v>
@@ -5417,13 +5417,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50.82</v>
+        <v>50.96</v>
       </c>
       <c r="C147" t="n">
         <v>25.18</v>
       </c>
       <c r="D147" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E147" t="n">
         <v>0.38</v>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>62.3</v>
+        <v>62.47</v>
       </c>
       <c r="C148" t="n">
         <v>29.8</v>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>34.66</v>
+        <v>34.79</v>
       </c>
       <c r="C149" t="n">
         <v>17.1</v>
@@ -5494,7 +5494,7 @@
         <v>1.02</v>
       </c>
       <c r="E149" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F149" t="n">
         <v>7.2</v>
@@ -5519,19 +5519,19 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>85.81</v>
+        <v>86.05</v>
       </c>
       <c r="C150" t="n">
-        <v>41.89</v>
+        <v>41.9</v>
       </c>
       <c r="D150" t="n">
         <v>0.92</v>
       </c>
       <c r="E150" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F150" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G150" t="n">
         <v>30</v>
@@ -5553,22 +5553,22 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>129.53</v>
+        <v>130.17</v>
       </c>
       <c r="C151" t="n">
-        <v>66.09999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="D151" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F151" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G151" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H151" t="n">
         <v>116</v>
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6.93</v>
+        <v>6.68</v>
       </c>
       <c r="C152" t="n">
-        <v>23.99</v>
+        <v>23.85</v>
       </c>
       <c r="D152" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E152" t="n">
-        <v>15.83</v>
+        <v>16.48</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5621,16 +5621,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>62.24</v>
+        <v>62.41</v>
       </c>
       <c r="C153" t="n">
-        <v>31.1</v>
+        <v>31.13</v>
       </c>
       <c r="D153" t="n">
         <v>0.98</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F153" t="n">
         <v>12</v>
@@ -5655,10 +5655,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>180.39</v>
+        <v>181.26</v>
       </c>
       <c r="C154" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="D154" t="n">
         <v>0.97</v>
@@ -5670,7 +5670,7 @@
         <v>28.8</v>
       </c>
       <c r="G154" t="n">
-        <v>55.2</v>
+        <v>57.6</v>
       </c>
       <c r="H154" t="n">
         <v>160.8</v>
@@ -5689,16 +5689,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>54.86</v>
+        <v>55.02</v>
       </c>
       <c r="C155" t="n">
-        <v>27.04</v>
+        <v>27.05</v>
       </c>
       <c r="D155" t="n">
         <v>1.01</v>
       </c>
       <c r="E155" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F155" t="n">
         <v>12</v>
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>90.79000000000001</v>
+        <v>91.06</v>
       </c>
       <c r="C156" t="n">
         <v>43.58</v>
@@ -5732,7 +5732,7 @@
         <v>0.84</v>
       </c>
       <c r="E156" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F156" t="n">
         <v>20</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>67.93000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C157" t="n">
-        <v>34.55</v>
+        <v>34.57</v>
       </c>
       <c r="D157" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E157" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F157" t="n">
         <v>15</v>
@@ -5791,16 +5791,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>90.16</v>
+        <v>90.44</v>
       </c>
       <c r="C158" t="n">
-        <v>43.21</v>
+        <v>43.22</v>
       </c>
       <c r="D158" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E158" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F158" t="n">
         <v>24</v>
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>13.21</v>
+        <v>12.87</v>
       </c>
       <c r="C159" t="n">
-        <v>32.05</v>
+        <v>31.98</v>
       </c>
       <c r="D159" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="E159" t="n">
-        <v>8.619999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5859,16 +5859,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>61.16</v>
+        <v>61.35</v>
       </c>
       <c r="C160" t="n">
-        <v>32.05</v>
+        <v>32.07</v>
       </c>
       <c r="D160" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F160" t="n">
         <v>12</v>
@@ -5880,7 +5880,7 @@
         <v>55.2</v>
       </c>
       <c r="I160" t="n">
-        <v>136.8</v>
+        <v>139.2</v>
       </c>
       <c r="J160" t="n">
         <v>247.2</v>
@@ -5893,16 +5893,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>71.51000000000001</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>36.64</v>
+        <v>36.65</v>
       </c>
       <c r="D161" t="n">
         <v>0.99</v>
       </c>
       <c r="E161" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F161" t="n">
         <v>16</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>53.22</v>
+        <v>53.37</v>
       </c>
       <c r="C162" t="n">
         <v>25.71</v>
@@ -5936,7 +5936,7 @@
         <v>1.24</v>
       </c>
       <c r="E162" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F162" t="n">
         <v>12</v>
@@ -5961,16 +5961,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>68.83</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>33.47</v>
+        <v>33.49</v>
       </c>
       <c r="D163" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E163" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F163" t="n">
         <v>18</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>49.22</v>
+        <v>49.4</v>
       </c>
       <c r="C164" t="n">
         <v>26.18</v>
@@ -6004,7 +6004,7 @@
         <v>1.06</v>
       </c>
       <c r="E164" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F164" t="n">
         <v>4</v>
@@ -6029,13 +6029,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>115.87</v>
+        <v>116.28</v>
       </c>
       <c r="C165" t="n">
-        <v>48.48</v>
+        <v>48.42</v>
       </c>
       <c r="D165" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E165" t="n">
         <v>0.06</v>
@@ -6047,7 +6047,7 @@
         <v>48</v>
       </c>
       <c r="H165" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I165" t="n">
         <v>225</v>
@@ -6063,16 +6063,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>85.95999999999999</v>
+        <v>86.23</v>
       </c>
       <c r="C166" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="D166" t="n">
         <v>0.93</v>
       </c>
       <c r="E166" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F166" t="n">
         <v>21</v>
@@ -6097,16 +6097,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>102.56</v>
+        <v>102.98</v>
       </c>
       <c r="C167" t="n">
-        <v>53.36</v>
+        <v>53.38</v>
       </c>
       <c r="D167" t="n">
         <v>0.99</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F167" t="n">
         <v>24</v>
@@ -6118,7 +6118,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="I167" t="n">
-        <v>230.4</v>
+        <v>232.8</v>
       </c>
       <c r="J167" t="n">
         <v>355.2</v>
@@ -6131,13 +6131,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>92.14</v>
+        <v>92.41</v>
       </c>
       <c r="C168" t="n">
         <v>45.24</v>
       </c>
       <c r="D168" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>1.12</v>
@@ -6146,7 +6146,7 @@
         <v>21.6</v>
       </c>
       <c r="G168" t="n">
-        <v>28.8</v>
+        <v>31.2</v>
       </c>
       <c r="H168" t="n">
         <v>84</v>
@@ -6165,16 +6165,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>68.91</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>34.89</v>
+        <v>34.9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E169" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F169" t="n">
         <v>16.8</v>
@@ -6183,7 +6183,7 @@
         <v>21.6</v>
       </c>
       <c r="H169" t="n">
-        <v>60</v>
+        <v>62.4</v>
       </c>
       <c r="I169" t="n">
         <v>153.6</v>
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>79.95999999999999</v>
+        <v>80.22</v>
       </c>
       <c r="C170" t="n">
-        <v>41.02</v>
+        <v>41.03</v>
       </c>
       <c r="D170" t="n">
         <v>0.98</v>
       </c>
       <c r="E170" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F170" t="n">
         <v>17.5</v>
@@ -6220,7 +6220,7 @@
         <v>70</v>
       </c>
       <c r="I170" t="n">
-        <v>177.5</v>
+        <v>179.38</v>
       </c>
       <c r="J170" t="n">
         <v>270</v>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>37.51</v>
+        <v>37.62</v>
       </c>
       <c r="C171" t="n">
         <v>18.81</v>
@@ -6242,7 +6242,7 @@
         <v>0.95</v>
       </c>
       <c r="E171" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F171" t="n">
         <v>7.2</v>
@@ -6267,10 +6267,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>166.51</v>
+        <v>167.35</v>
       </c>
       <c r="C172" t="n">
-        <v>81.12</v>
+        <v>80.83</v>
       </c>
       <c r="D172" t="n">
         <v>0.87</v>
@@ -6279,7 +6279,7 @@
         <v>0.3</v>
       </c>
       <c r="F172" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G172" t="n">
         <v>60</v>
@@ -6301,19 +6301,19 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>77.43000000000001</v>
+        <v>77.67</v>
       </c>
       <c r="C173" t="n">
-        <v>38.22</v>
+        <v>38.23</v>
       </c>
       <c r="D173" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E173" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F173" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G173" t="n">
         <v>27</v>
@@ -6335,16 +6335,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>105.15</v>
+        <v>105.46</v>
       </c>
       <c r="C174" t="n">
-        <v>51.08</v>
+        <v>51.1</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F174" t="n">
         <v>24</v>
@@ -6369,16 +6369,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>104.6</v>
+        <v>104.92</v>
       </c>
       <c r="C175" t="n">
-        <v>51.98</v>
+        <v>52.01</v>
       </c>
       <c r="D175" t="n">
         <v>0.96</v>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F175" t="n">
         <v>27</v>
@@ -6387,7 +6387,7 @@
         <v>36</v>
       </c>
       <c r="H175" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I175" t="n">
         <v>228</v>
@@ -6403,16 +6403,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>57.74</v>
+        <v>57.93</v>
       </c>
       <c r="C176" t="n">
         <v>26.92</v>
       </c>
       <c r="D176" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E176" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F176" t="n">
         <v>12</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>108.17</v>
+        <v>108.49</v>
       </c>
       <c r="C177" t="n">
-        <v>51.89</v>
+        <v>51.9</v>
       </c>
       <c r="D177" t="n">
         <v>1.07</v>
       </c>
       <c r="E177" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="F177" t="n">
         <v>27</v>
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>66.04000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="C178" t="n">
-        <v>31.89</v>
+        <v>31.91</v>
       </c>
       <c r="D178" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E178" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F178" t="n">
         <v>15</v>
@@ -6505,16 +6505,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>95.73</v>
+        <v>96</v>
       </c>
       <c r="C179" t="n">
-        <v>44.22</v>
+        <v>44.24</v>
       </c>
       <c r="D179" t="n">
         <v>0.89</v>
       </c>
       <c r="E179" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F179" t="n">
         <v>27</v>
@@ -6539,16 +6539,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>37.43</v>
+        <v>37.57</v>
       </c>
       <c r="C180" t="n">
-        <v>20.62</v>
+        <v>20.63</v>
       </c>
       <c r="D180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E180" t="n">
         <v>1.18</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.2</v>
       </c>
       <c r="F180" t="n">
         <v>9</v>
@@ -6560,7 +6560,7 @@
         <v>30</v>
       </c>
       <c r="I180" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J180" t="n">
         <v>144</v>
@@ -6573,16 +6573,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>81.93000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>42.02</v>
+        <v>42.03</v>
       </c>
       <c r="D181" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E181" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F181" t="n">
         <v>18</v>
@@ -6594,7 +6594,7 @@
         <v>72</v>
       </c>
       <c r="I181" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J181" t="n">
         <v>273</v>
@@ -6641,16 +6641,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>86.13</v>
+        <v>86.37</v>
       </c>
       <c r="C183" t="n">
-        <v>39.56</v>
+        <v>39.57</v>
       </c>
       <c r="D183" t="n">
         <v>0.87</v>
       </c>
       <c r="E183" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F183" t="n">
         <v>24</v>
@@ -6659,7 +6659,7 @@
         <v>33</v>
       </c>
       <c r="H183" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I183" t="n">
         <v>180</v>
@@ -6675,7 +6675,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>106.3</v>
+        <v>106.65</v>
       </c>
       <c r="C184" t="n">
         <v>51.65</v>
@@ -6684,13 +6684,13 @@
         <v>0.89</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F184" t="n">
         <v>28</v>
       </c>
       <c r="G184" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H184" t="n">
         <v>96</v>
@@ -6709,16 +6709,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>58.84</v>
+        <v>59</v>
       </c>
       <c r="C185" t="n">
-        <v>28.67</v>
+        <v>28.68</v>
       </c>
       <c r="D185" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E185" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F185" t="n">
         <v>16</v>
@@ -6743,7 +6743,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>81.70999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C186" t="n">
         <v>33.76</v>
@@ -6752,7 +6752,7 @@
         <v>0.9</v>
       </c>
       <c r="E186" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F186" t="n">
         <v>20</v>
@@ -6777,16 +6777,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>96.67</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>46.97</v>
+        <v>47</v>
       </c>
       <c r="D187" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E187" t="n">
         <v>1.02</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.03</v>
       </c>
       <c r="F187" t="n">
         <v>24</v>
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>74.98999999999999</v>
+        <v>75.23</v>
       </c>
       <c r="C188" t="n">
-        <v>36.26</v>
+        <v>36.25</v>
       </c>
       <c r="D188" t="n">
         <v>0.95</v>
@@ -6845,13 +6845,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>53.85</v>
+        <v>54</v>
       </c>
       <c r="C189" t="n">
-        <v>24.72</v>
+        <v>24.71</v>
       </c>
       <c r="D189" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E189" t="n">
         <v>0.2</v>
@@ -6879,16 +6879,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>59.45</v>
+        <v>59.62</v>
       </c>
       <c r="C190" t="n">
-        <v>31.89</v>
+        <v>31.9</v>
       </c>
       <c r="D190" t="n">
         <v>1.07</v>
       </c>
       <c r="E190" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>52</v>
       </c>
       <c r="I190" t="n">
-        <v>137.5</v>
+        <v>140</v>
       </c>
       <c r="J190" t="n">
         <v>204</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>99.29000000000001</v>
+        <v>99.56</v>
       </c>
       <c r="C191" t="n">
-        <v>47.54</v>
+        <v>47.56</v>
       </c>
       <c r="D191" t="n">
         <v>0.96</v>
       </c>
       <c r="E191" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F191" t="n">
         <v>24</v>
@@ -6947,16 +6947,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>75.03</v>
+        <v>75.23</v>
       </c>
       <c r="C192" t="n">
-        <v>33.83</v>
+        <v>33.82</v>
       </c>
       <c r="D192" t="n">
         <v>0.77</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F192" t="n">
         <v>18</v>
@@ -6965,7 +6965,7 @@
         <v>27</v>
       </c>
       <c r="H192" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I192" t="n">
         <v>153</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>103.9</v>
+        <v>104.17</v>
       </c>
       <c r="C193" t="n">
-        <v>49.04</v>
+        <v>49.06</v>
       </c>
       <c r="D193" t="n">
         <v>1.02</v>
       </c>
       <c r="E193" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="F193" t="n">
         <v>27</v>
@@ -7015,16 +7015,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>52.3</v>
+        <v>52.45</v>
       </c>
       <c r="C194" t="n">
-        <v>26.96</v>
+        <v>26.98</v>
       </c>
       <c r="D194" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="E194" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="F194" t="n">
         <v>12.8</v>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>58.24</v>
+        <v>58.41</v>
       </c>
       <c r="C195" t="n">
         <v>29.48</v>
@@ -7058,7 +7058,7 @@
         <v>0.95</v>
       </c>
       <c r="E195" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F195" t="n">
         <v>12</v>
@@ -7083,16 +7083,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>82.16</v>
+        <v>82.36</v>
       </c>
       <c r="C196" t="n">
-        <v>39.48</v>
+        <v>39.49</v>
       </c>
       <c r="D196" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F196" t="n">
         <v>21</v>
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>54.21</v>
+        <v>54.35</v>
       </c>
       <c r="C197" t="n">
-        <v>28.19</v>
+        <v>28.21</v>
       </c>
       <c r="D197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F197" t="n">
         <v>12</v>
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>64.62</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="C198" t="n">
-        <v>30.3</v>
+        <v>30.29</v>
       </c>
       <c r="D198" t="n">
         <v>1.01</v>
@@ -7185,16 +7185,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>50.24</v>
+        <v>50.38</v>
       </c>
       <c r="C199" t="n">
-        <v>25.84</v>
+        <v>25.85</v>
       </c>
       <c r="D199" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E199" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7219,16 +7219,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>127.54</v>
+        <v>127.91</v>
       </c>
       <c r="C200" t="n">
-        <v>64.27</v>
+        <v>64.3</v>
       </c>
       <c r="D200" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E200" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F200" t="n">
         <v>32</v>
@@ -7240,7 +7240,7 @@
         <v>112</v>
       </c>
       <c r="I200" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J200" t="n">
         <v>388</v>
@@ -7253,16 +7253,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>106.73</v>
+        <v>107.03</v>
       </c>
       <c r="C201" t="n">
-        <v>53.45</v>
+        <v>53.47</v>
       </c>
       <c r="D201" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E201" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F201" t="n">
         <v>24</v>
@@ -7287,16 +7287,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>100.6</v>
+        <v>100.86</v>
       </c>
       <c r="C202" t="n">
-        <v>51.26</v>
+        <v>51.3</v>
       </c>
       <c r="D202" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E202" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F202" t="n">
         <v>24</v>
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>73.14</v>
+        <v>73.41</v>
       </c>
       <c r="C203" t="n">
-        <v>39.29</v>
+        <v>39.3</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E203" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F203" t="n">
         <v>16</v>
@@ -7355,16 +7355,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>62.34</v>
+        <v>62.54</v>
       </c>
       <c r="C204" t="n">
-        <v>55.92</v>
+        <v>56.04</v>
       </c>
       <c r="D204" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E204" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="F204" t="n">
         <v>4</v>
@@ -7389,16 +7389,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>82.89</v>
+        <v>83.19</v>
       </c>
       <c r="C205" t="n">
-        <v>56.77</v>
+        <v>56.85</v>
       </c>
       <c r="D205" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="E205" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="F205" t="n">
         <v>12</v>
@@ -7423,16 +7423,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>101.7</v>
+        <v>102.01</v>
       </c>
       <c r="C206" t="n">
-        <v>52.68</v>
+        <v>52.69</v>
       </c>
       <c r="D206" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E206" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F206" t="n">
         <v>24</v>
@@ -7457,16 +7457,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>126.08</v>
+        <v>126.45</v>
       </c>
       <c r="C207" t="n">
-        <v>65.58</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D207" t="n">
         <v>0.93</v>
       </c>
       <c r="E207" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F207" t="n">
         <v>28</v>
@@ -7478,7 +7478,7 @@
         <v>112</v>
       </c>
       <c r="I207" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J207" t="n">
         <v>416</v>
@@ -7491,16 +7491,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>83.8</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>44.72</v>
+        <v>44.75</v>
       </c>
       <c r="D208" t="n">
         <v>0.96</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F208" t="n">
         <v>16</v>
@@ -7525,16 +7525,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>92.72</v>
+        <v>92.97</v>
       </c>
       <c r="C209" t="n">
-        <v>46.12</v>
+        <v>46.15</v>
       </c>
       <c r="D209" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F209" t="n">
         <v>24</v>
@@ -7559,19 +7559,19 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>94.09999999999999</v>
+        <v>94.36</v>
       </c>
       <c r="C210" t="n">
-        <v>44.92</v>
+        <v>44.93</v>
       </c>
       <c r="D210" t="n">
         <v>0.88</v>
       </c>
       <c r="E210" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F210" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G210" t="n">
         <v>30</v>
@@ -7593,13 +7593,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>134.59</v>
+        <v>134.96</v>
       </c>
       <c r="C211" t="n">
         <v>62.84</v>
       </c>
       <c r="D211" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E211" t="n">
         <v>0.99</v>
@@ -7627,10 +7627,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>144.5</v>
+        <v>144.9</v>
       </c>
       <c r="C212" t="n">
-        <v>66.17</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D212" t="n">
         <v>0.98</v>
@@ -7661,25 +7661,25 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>65.88</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>28.12</v>
+        <v>28.08</v>
       </c>
       <c r="D213" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E213" t="n">
         <v>-0.03</v>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G213" t="n">
         <v>22</v>
       </c>
       <c r="H213" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I213" t="n">
         <v>128</v>
@@ -7695,10 +7695,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>109.66</v>
+        <v>109.95</v>
       </c>
       <c r="C214" t="n">
-        <v>42.03</v>
+        <v>42</v>
       </c>
       <c r="D214" t="n">
         <v>0.76</v>
@@ -7713,7 +7713,7 @@
         <v>46</v>
       </c>
       <c r="H214" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I214" t="n">
         <v>208</v>
@@ -7729,13 +7729,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>155.46</v>
+        <v>155.9</v>
       </c>
       <c r="C215" t="n">
         <v>73.39</v>
       </c>
       <c r="D215" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E215" t="n">
         <v>0.77</v>
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>184.98</v>
+        <v>185.46</v>
       </c>
       <c r="C216" t="n">
         <v>78.06</v>
@@ -7772,13 +7772,13 @@
         <v>0.59</v>
       </c>
       <c r="E216" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F216" t="n">
         <v>46</v>
       </c>
       <c r="G216" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H216" t="n">
         <v>174</v>
@@ -7797,16 +7797,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>165.7</v>
+        <v>166.22</v>
       </c>
       <c r="C217" t="n">
-        <v>72.48</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="D217" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E217" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="F217" t="n">
         <v>30</v>
@@ -7818,7 +7818,7 @@
         <v>150</v>
       </c>
       <c r="I217" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J217" t="n">
         <v>522</v>
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>94.13</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>39.78</v>
+        <v>39.77</v>
       </c>
       <c r="D218" t="n">
         <v>0.76</v>
@@ -7865,10 +7865,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>64.08</v>
+        <v>64.31</v>
       </c>
       <c r="C219" t="n">
-        <v>27.7</v>
+        <v>27.65</v>
       </c>
       <c r="D219" t="n">
         <v>0.63</v>
@@ -7899,16 +7899,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>296.22</v>
+        <v>297.05</v>
       </c>
       <c r="C220" t="n">
-        <v>128.6</v>
+        <v>128.59</v>
       </c>
       <c r="D220" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F220" t="n">
         <v>54</v>
@@ -7917,7 +7917,7 @@
         <v>114</v>
       </c>
       <c r="H220" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I220" t="n">
         <v>600</v>
@@ -7933,10 +7933,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>166.33</v>
+        <v>166.85</v>
       </c>
       <c r="C221" t="n">
-        <v>68.95</v>
+        <v>68.88</v>
       </c>
       <c r="D221" t="n">
         <v>0.61</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H221" t="n">
         <v>156</v>
@@ -7967,16 +7967,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>116.09</v>
+        <v>116.42</v>
       </c>
       <c r="C222" t="n">
-        <v>52.88</v>
+        <v>52.87</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E222" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F222" t="n">
         <v>27</v>
@@ -7988,7 +7988,7 @@
         <v>111</v>
       </c>
       <c r="I222" t="n">
-        <v>237.68</v>
+        <v>240</v>
       </c>
       <c r="J222" t="n">
         <v>375</v>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>43.33</v>
+        <v>43.47</v>
       </c>
       <c r="C223" t="n">
         <v>22.6</v>
@@ -8010,7 +8010,7 @@
         <v>0.95</v>
       </c>
       <c r="E223" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8035,13 +8035,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>135.89</v>
+        <v>136.28</v>
       </c>
       <c r="C224" t="n">
-        <v>54.75</v>
+        <v>54.71</v>
       </c>
       <c r="D224" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E224" t="n">
         <v>0.5600000000000001</v>
@@ -8069,16 +8069,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>110.5</v>
+        <v>110.82</v>
       </c>
       <c r="C225" t="n">
-        <v>52.46</v>
+        <v>52.47</v>
       </c>
       <c r="D225" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F225" t="n">
         <v>28</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>70.83</v>
+        <v>71</v>
       </c>
       <c r="C226" t="n">
-        <v>29.47</v>
+        <v>29.46</v>
       </c>
       <c r="D226" t="n">
         <v>0.83</v>
@@ -8137,16 +8137,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>18.14</v>
+        <v>18.23</v>
       </c>
       <c r="C227" t="n">
-        <v>14.75</v>
+        <v>14.76</v>
       </c>
       <c r="D227" t="n">
         <v>2.1</v>
       </c>
       <c r="E227" t="n">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="F227" t="n">
         <v>2.4</v>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>19.48</v>
+        <v>19.54</v>
       </c>
       <c r="C228" t="n">
         <v>10.4</v>
@@ -8180,7 +8180,7 @@
         <v>1.17</v>
       </c>
       <c r="E228" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
@@ -8205,10 +8205,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="C229" t="n">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="D229" t="n">
         <v>1.14</v>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>39.6</v>
+        <v>39.72</v>
       </c>
       <c r="C230" t="n">
         <v>20.09</v>
@@ -8248,7 +8248,7 @@
         <v>1.05</v>
       </c>
       <c r="E230" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F230" t="n">
         <v>10</v>
@@ -8260,7 +8260,7 @@
         <v>36</v>
       </c>
       <c r="I230" t="n">
-        <v>88</v>
+        <v>89.7</v>
       </c>
       <c r="J230" t="n">
         <v>152</v>
@@ -8273,16 +8273,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
       <c r="C231" t="n">
         <v>3.74</v>
       </c>
       <c r="D231" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E231" t="n">
-        <v>5.28</v>
+        <v>5.25</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>206.15</v>
+        <v>206.7</v>
       </c>
       <c r="C232" t="n">
-        <v>82.37</v>
+        <v>82.3</v>
       </c>
       <c r="D232" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F232" t="n">
         <v>54</v>
@@ -8341,7 +8341,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>14.23</v>
+        <v>14.28</v>
       </c>
       <c r="C233" t="n">
         <v>8.49</v>
@@ -8350,7 +8350,7 @@
         <v>1.47</v>
       </c>
       <c r="E233" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="F233" t="n">
         <v>2.4</v>
@@ -8375,16 +8375,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8.609999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="C234" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="D234" t="n">
         <v>1.96</v>
       </c>
       <c r="E234" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -8409,16 +8409,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>10.71</v>
+        <v>10.75</v>
       </c>
       <c r="C235" t="n">
         <v>6.42</v>
       </c>
       <c r="D235" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E235" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>12.48</v>
+        <v>12.53</v>
       </c>
       <c r="C236" t="n">
         <v>7.44</v>
@@ -8452,7 +8452,7 @@
         <v>1.49</v>
       </c>
       <c r="E236" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="F236" t="n">
         <v>2.4</v>
@@ -8477,16 +8477,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>44.43</v>
+        <v>44.55</v>
       </c>
       <c r="C237" t="n">
         <v>21.07</v>
       </c>
       <c r="D237" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E237" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F237" t="n">
         <v>12</v>
@@ -8511,25 +8511,25 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>59.69</v>
+        <v>59.83</v>
       </c>
       <c r="C238" t="n">
         <v>24.3</v>
       </c>
       <c r="D238" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E238" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F238" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G238" t="n">
         <v>26</v>
       </c>
       <c r="H238" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I238" t="n">
         <v>116</v>
@@ -8579,19 +8579,19 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>12.06</v>
+        <v>12.1</v>
       </c>
       <c r="C240" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D240" t="n">
         <v>1.54</v>
       </c>
       <c r="E240" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G240" t="n">
         <v>2.4</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>12.24</v>
+        <v>12.29</v>
       </c>
       <c r="C241" t="n">
         <v>6.8</v>
@@ -8681,10 +8681,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>13.34</v>
+        <v>13.4</v>
       </c>
       <c r="C243" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="D243" t="n">
         <v>1.5</v>
@@ -8715,16 +8715,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>111.83</v>
+        <v>112.14</v>
       </c>
       <c r="C244" t="n">
-        <v>52.97</v>
+        <v>52.98</v>
       </c>
       <c r="D244" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F244" t="n">
         <v>28.8</v>
@@ -8749,16 +8749,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>9.300000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="C245" t="n">
         <v>5.87</v>
       </c>
       <c r="D245" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="E245" t="n">
-        <v>8.16</v>
+        <v>8.19</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>11.41</v>
+        <v>11.46</v>
       </c>
       <c r="C246" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D246" t="n">
         <v>1.44</v>
       </c>
       <c r="E246" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -8817,16 +8817,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>86.98</v>
+        <v>86.94</v>
       </c>
       <c r="C247" t="n">
-        <v>47.75</v>
+        <v>47.8</v>
       </c>
       <c r="D247" t="n">
         <v>1.42</v>
       </c>
       <c r="E247" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F247" t="n">
         <v>18</v>
@@ -8851,10 +8851,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>20.31</v>
+        <v>20.39</v>
       </c>
       <c r="C248" t="n">
-        <v>10.65</v>
+        <v>10.64</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -8885,10 +8885,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>75.66</v>
+        <v>75.89</v>
       </c>
       <c r="C249" t="n">
-        <v>38.02</v>
+        <v>38</v>
       </c>
       <c r="D249" t="n">
         <v>1.14</v>
@@ -8919,10 +8919,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>15.81</v>
+        <v>15.87</v>
       </c>
       <c r="C250" t="n">
-        <v>9.130000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D250" t="n">
         <v>1.21</v>
@@ -8937,7 +8937,7 @@
         <v>4.8</v>
       </c>
       <c r="H250" t="n">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="I250" t="n">
         <v>38.4</v>
@@ -8953,19 +8953,19 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>14.73</v>
+        <v>14.79</v>
       </c>
       <c r="C251" t="n">
-        <v>9.32</v>
+        <v>9.31</v>
       </c>
       <c r="D251" t="n">
         <v>1.61</v>
       </c>
       <c r="E251" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G251" t="n">
         <v>4.8</v>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>7.28</v>
+        <v>7.31</v>
       </c>
       <c r="C252" t="n">
         <v>5.23</v>
@@ -8996,7 +8996,7 @@
         <v>1.94</v>
       </c>
       <c r="E252" t="n">
-        <v>5.35</v>
+        <v>5.33</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9021,19 +9021,19 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>15.03</v>
+        <v>15.1</v>
       </c>
       <c r="C253" t="n">
-        <v>9.220000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="E253" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>9.19</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C254" t="n">
         <v>5.35</v>
@@ -9123,16 +9123,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>10.57</v>
+        <v>10.62</v>
       </c>
       <c r="C256" t="n">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="D256" t="n">
         <v>1.63</v>
       </c>
       <c r="E256" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="C257" t="n">
         <v>4.36</v>
@@ -9191,16 +9191,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>42.89</v>
+        <v>42.97</v>
       </c>
       <c r="C258" t="n">
-        <v>29.13</v>
+        <v>29.2</v>
       </c>
       <c r="D258" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="E258" t="n">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="F258" t="n">
         <v>9.6</v>
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>22.41</v>
+        <v>22.49</v>
       </c>
       <c r="C259" t="n">
-        <v>11.28</v>
+        <v>11.27</v>
       </c>
       <c r="D259" t="n">
         <v>1.11</v>
@@ -9259,16 +9259,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>53.97</v>
+        <v>54.12</v>
       </c>
       <c r="C260" t="n">
-        <v>24.32</v>
+        <v>24.31</v>
       </c>
       <c r="D260" t="n">
         <v>0.97</v>
       </c>
       <c r="E260" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F260" t="n">
         <v>14</v>
@@ -9293,16 +9293,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>70.26000000000001</v>
+        <v>70.45</v>
       </c>
       <c r="C261" t="n">
-        <v>35.97</v>
+        <v>35.99</v>
       </c>
       <c r="D261" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E261" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F261" t="n">
         <v>18</v>
@@ -9327,10 +9327,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>14.54</v>
+        <v>14.61</v>
       </c>
       <c r="C262" t="n">
-        <v>8.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D262" t="n">
         <v>1.12</v>
@@ -9395,16 +9395,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>104.94</v>
+        <v>105.22</v>
       </c>
       <c r="C264" t="n">
-        <v>46.76</v>
+        <v>46.75</v>
       </c>
       <c r="D264" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E264" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>35.2</v>
       </c>
       <c r="H264" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="I264" t="n">
-        <v>210.4</v>
+        <v>210.63</v>
       </c>
       <c r="J264" t="n">
         <v>294</v>
@@ -9463,16 +9463,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>70.69</v>
+        <v>70.66</v>
       </c>
       <c r="C266" t="n">
-        <v>38.15</v>
+        <v>38.18</v>
       </c>
       <c r="D266" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="E266" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="F266" t="n">
         <v>14.4</v>
@@ -9531,7 +9531,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>12.8</v>
+        <v>12.86</v>
       </c>
       <c r="C268" t="n">
         <v>8.109999999999999</v>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>78.12</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="C269" t="n">
         <v>38.67</v>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>9.859999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="C270" t="n">
         <v>6.36</v>
@@ -9608,7 +9608,7 @@
         <v>1.42</v>
       </c>
       <c r="E270" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>10.14</v>
+        <v>10.18</v>
       </c>
       <c r="C271" t="n">
         <v>7.57</v>
@@ -9642,7 +9642,7 @@
         <v>1.88</v>
       </c>
       <c r="E271" t="n">
-        <v>4.41</v>
+        <v>4.39</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>92.59999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="C272" t="n">
-        <v>46.25</v>
+        <v>46.24</v>
       </c>
       <c r="D272" t="n">
         <v>1.02</v>
@@ -9701,10 +9701,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>17.36</v>
+        <v>17.44</v>
       </c>
       <c r="C273" t="n">
-        <v>9.470000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D273" t="n">
         <v>1.04</v>
@@ -9735,19 +9735,19 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>16.35</v>
+        <v>16.43</v>
       </c>
       <c r="C274" t="n">
-        <v>9.32</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D274" t="n">
         <v>1.4</v>
       </c>
       <c r="E274" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G274" t="n">
         <v>6</v>
@@ -9769,16 +9769,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>15.19</v>
+        <v>15.26</v>
       </c>
       <c r="C275" t="n">
-        <v>12.92</v>
+        <v>12.93</v>
       </c>
       <c r="D275" t="n">
         <v>1.97</v>
       </c>
       <c r="E275" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -9803,10 +9803,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>41.15</v>
+        <v>41.28</v>
       </c>
       <c r="C276" t="n">
-        <v>18.81</v>
+        <v>18.8</v>
       </c>
       <c r="D276" t="n">
         <v>0.95</v>
@@ -9837,16 +9837,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>10.72</v>
+        <v>10.74</v>
       </c>
       <c r="C277" t="n">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
       <c r="D277" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="E277" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>11.9</v>
+        <v>11.97</v>
       </c>
       <c r="C278" t="n">
         <v>9.699999999999999</v>
@@ -9880,7 +9880,7 @@
         <v>1.88</v>
       </c>
       <c r="E278" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>17.6</v>
+        <v>17.67</v>
       </c>
       <c r="C279" t="n">
         <v>10.3</v>
@@ -9914,7 +9914,7 @@
         <v>1.28</v>
       </c>
       <c r="E279" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="F279" t="n">
         <v>2.4</v>
@@ -9939,16 +9939,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>98.55</v>
+        <v>98.81</v>
       </c>
       <c r="C280" t="n">
-        <v>48.47</v>
+        <v>48.49</v>
       </c>
       <c r="D280" t="n">
         <v>1.05</v>
       </c>
       <c r="E280" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F280" t="n">
         <v>27</v>
@@ -9973,10 +9973,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>15.58</v>
+        <v>15.63</v>
       </c>
       <c r="C281" t="n">
-        <v>8.4</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D281" t="n">
         <v>1.16</v>
@@ -10041,16 +10041,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>9.640000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="C283" t="n">
         <v>6.04</v>
       </c>
       <c r="D283" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="E283" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -10075,10 +10075,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>10.64</v>
+        <v>10.69</v>
       </c>
       <c r="C284" t="n">
-        <v>7.09</v>
+        <v>7.08</v>
       </c>
       <c r="D284" t="n">
         <v>1.65</v>
@@ -10109,16 +10109,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>15.54</v>
+        <v>15.61</v>
       </c>
       <c r="C285" t="n">
-        <v>9.66</v>
+        <v>9.65</v>
       </c>
       <c r="D285" t="n">
         <v>1.28</v>
       </c>
       <c r="E285" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F285" t="n">
         <v>2</v>
@@ -10127,7 +10127,7 @@
         <v>4</v>
       </c>
       <c r="H285" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I285" t="n">
         <v>40</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>9.24</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C288" t="n">
         <v>6.02</v>
       </c>
       <c r="D288" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="E288" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10245,16 +10245,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>80.51000000000001</v>
+        <v>80.77</v>
       </c>
       <c r="C289" t="n">
-        <v>40.55</v>
+        <v>40.54</v>
       </c>
       <c r="D289" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E289" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F289" t="n">
         <v>16.8</v>
@@ -10279,19 +10279,19 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>12.42</v>
+        <v>12.47</v>
       </c>
       <c r="C290" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D290" t="n">
         <v>1.48</v>
       </c>
       <c r="E290" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G290" t="n">
         <v>2.4</v>
@@ -10347,10 +10347,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>18.59</v>
+        <v>18.66</v>
       </c>
       <c r="C292" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D292" t="n">
         <v>1.22</v>
@@ -10381,16 +10381,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>7.18</v>
+        <v>7.21</v>
       </c>
       <c r="C293" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="D293" t="n">
         <v>1.52</v>
       </c>
       <c r="E293" t="n">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -10415,16 +10415,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="C294" t="n">
         <v>7.47</v>
       </c>
       <c r="D294" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="E294" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10449,13 +10449,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>107.2</v>
+        <v>107.53</v>
       </c>
       <c r="C295" t="n">
-        <v>45.73</v>
+        <v>45.69</v>
       </c>
       <c r="D295" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E295" t="n">
         <v>0.99</v>
@@ -10464,7 +10464,7 @@
         <v>33.6</v>
       </c>
       <c r="G295" t="n">
-        <v>45.6</v>
+        <v>46.32</v>
       </c>
       <c r="H295" t="n">
         <v>98.40000000000001</v>
@@ -10483,16 +10483,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>17.67</v>
+        <v>17.75</v>
       </c>
       <c r="C296" t="n">
-        <v>11.26</v>
+        <v>11.25</v>
       </c>
       <c r="D296" t="n">
         <v>1.44</v>
       </c>
       <c r="E296" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="F296" t="n">
         <v>2.4</v>
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>54.47</v>
+        <v>54.62</v>
       </c>
       <c r="C299" t="n">
         <v>26.91</v>
@@ -10619,16 +10619,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>29.79</v>
+        <v>29.92</v>
       </c>
       <c r="C300" t="n">
-        <v>16.75</v>
+        <v>16.72</v>
       </c>
       <c r="D300" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="E300" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="F300" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>31.03</v>
+        <v>31.16</v>
       </c>
       <c r="C301" t="n">
-        <v>17.6</v>
+        <v>17.58</v>
       </c>
       <c r="D301" t="n">
         <v>1.45</v>
       </c>
       <c r="E301" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="F301" t="n">
         <v>4</v>
@@ -10687,16 +10687,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>33.95</v>
+        <v>34.11</v>
       </c>
       <c r="C302" t="n">
-        <v>19.08</v>
+        <v>19.05</v>
       </c>
       <c r="D302" t="n">
         <v>1.56</v>
       </c>
       <c r="E302" t="n">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="F302" t="n">
         <v>4</v>
@@ -10721,16 +10721,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>26.25</v>
+        <v>26.39</v>
       </c>
       <c r="C303" t="n">
-        <v>18.59</v>
+        <v>18.57</v>
       </c>
       <c r="D303" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="E303" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -10755,16 +10755,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>33.27</v>
+        <v>33.42</v>
       </c>
       <c r="C304" t="n">
-        <v>17.12</v>
+        <v>17.1</v>
       </c>
       <c r="D304" t="n">
         <v>1.25</v>
       </c>
       <c r="E304" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="F304" t="n">
         <v>4</v>
@@ -10789,16 +10789,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>33.07</v>
+        <v>33.25</v>
       </c>
       <c r="C305" t="n">
-        <v>18.63</v>
+        <v>18.59</v>
       </c>
       <c r="D305" t="n">
         <v>1.26</v>
       </c>
       <c r="E305" t="n">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="F305" t="n">
         <v>4</v>
@@ -10823,16 +10823,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>134.06</v>
+        <v>134.43</v>
       </c>
       <c r="C306" t="n">
-        <v>66.34999999999999</v>
+        <v>66.38</v>
       </c>
       <c r="D306" t="n">
         <v>1.03</v>
       </c>
       <c r="E306" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F306" t="n">
         <v>33.6</v>
@@ -10841,7 +10841,7 @@
         <v>48</v>
       </c>
       <c r="H306" t="n">
-        <v>120</v>
+        <v>122.4</v>
       </c>
       <c r="I306" t="n">
         <v>297.6</v>
@@ -10857,19 +10857,19 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>58.11</v>
+        <v>58.28</v>
       </c>
       <c r="C307" t="n">
-        <v>29.33</v>
+        <v>29.32</v>
       </c>
       <c r="D307" t="n">
         <v>0.99</v>
       </c>
       <c r="E307" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F307" t="n">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="G307" t="n">
         <v>19.2</v>
@@ -10891,16 +10891,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>75</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>38.99</v>
+        <v>39.01</v>
       </c>
       <c r="D308" t="n">
         <v>1.14</v>
       </c>
       <c r="E308" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="F308" t="n">
         <v>18</v>
@@ -10909,7 +10909,7 @@
         <v>24</v>
       </c>
       <c r="H308" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I308" t="n">
         <v>174</v>
@@ -10925,19 +10925,19 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>147.85</v>
+        <v>148.25</v>
       </c>
       <c r="C309" t="n">
-        <v>68.62</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D309" t="n">
         <v>0.91</v>
       </c>
       <c r="E309" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F309" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G309" t="n">
         <v>54</v>
@@ -10946,7 +10946,7 @@
         <v>138</v>
       </c>
       <c r="I309" t="n">
-        <v>311.32</v>
+        <v>312</v>
       </c>
       <c r="J309" t="n">
         <v>465</v>
@@ -10959,16 +10959,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>123.73</v>
+        <v>124.07</v>
       </c>
       <c r="C310" t="n">
-        <v>56.31</v>
+        <v>56.29</v>
       </c>
       <c r="D310" t="n">
         <v>0.92</v>
       </c>
       <c r="E310" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F310" t="n">
         <v>33.6</v>
@@ -10980,7 +10980,7 @@
         <v>115.2</v>
       </c>
       <c r="I310" t="n">
-        <v>258</v>
+        <v>259.2</v>
       </c>
       <c r="J310" t="n">
         <v>386.4</v>
@@ -10993,16 +10993,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>122.35</v>
+        <v>122.69</v>
       </c>
       <c r="C311" t="n">
         <v>57.91</v>
       </c>
       <c r="D311" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E311" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F311" t="n">
         <v>28.8</v>
@@ -11027,19 +11027,19 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>110.96</v>
+        <v>111.31</v>
       </c>
       <c r="C312" t="n">
-        <v>55.24</v>
+        <v>55.22</v>
       </c>
       <c r="D312" t="n">
         <v>0.97</v>
       </c>
       <c r="E312" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F312" t="n">
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="G312" t="n">
         <v>38.4</v>
@@ -11061,16 +11061,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>47.19</v>
+        <v>47.3</v>
       </c>
       <c r="C313" t="n">
-        <v>27.25</v>
+        <v>27.28</v>
       </c>
       <c r="D313" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E313" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -11095,16 +11095,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="C314" t="n">
         <v>6.64</v>
       </c>
       <c r="D314" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E314" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -11129,16 +11129,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>75.39</v>
+        <v>75.53</v>
       </c>
       <c r="C315" t="n">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="D315" t="n">
         <v>0.99</v>
       </c>
       <c r="E315" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -11163,16 +11163,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>9.68</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C316" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D316" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E316" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>35.57</v>
+        <v>35.63</v>
       </c>
       <c r="C317" t="n">
-        <v>18.82</v>
+        <v>18.84</v>
       </c>
       <c r="D317" t="n">
         <v>0.98</v>
       </c>
       <c r="E317" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11231,16 +11231,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>112.06</v>
+        <v>112.27</v>
       </c>
       <c r="C318" t="n">
-        <v>53.48</v>
+        <v>53.5</v>
       </c>
       <c r="D318" t="n">
         <v>0.93</v>
       </c>
       <c r="E318" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F318" t="n">
         <v>30</v>
@@ -11249,7 +11249,7 @@
         <v>39</v>
       </c>
       <c r="H318" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I318" t="n">
         <v>243</v>
@@ -11299,10 +11299,10 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>108.41</v>
+        <v>108.6</v>
       </c>
       <c r="C320" t="n">
-        <v>52.19</v>
+        <v>52.23</v>
       </c>
       <c r="D320" t="n">
         <v>0.76</v>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>67.93000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="C323" t="n">
-        <v>34.6</v>
+        <v>34.61</v>
       </c>
       <c r="D323" t="n">
         <v>0.95</v>
@@ -11435,10 +11435,10 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>130.02</v>
+        <v>130.2</v>
       </c>
       <c r="C324" t="n">
-        <v>64.14</v>
+        <v>64.17</v>
       </c>
       <c r="D324" t="n">
         <v>0.87</v>
@@ -11503,16 +11503,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>82.84</v>
+        <v>83.02</v>
       </c>
       <c r="C326" t="n">
-        <v>43.45</v>
+        <v>43.51</v>
       </c>
       <c r="D326" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E326" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F326" t="n">
         <v>15</v>
@@ -11537,16 +11537,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>46.28</v>
+        <v>46.38</v>
       </c>
       <c r="C327" t="n">
-        <v>24.22</v>
+        <v>24.24</v>
       </c>
       <c r="D327" t="n">
         <v>1.1</v>
       </c>
       <c r="E327" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F327" t="n">
         <v>9</v>
@@ -11577,10 +11577,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D328" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="E328" t="n">
-        <v>32.62</v>
+        <v>33.06</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -11639,10 +11639,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>29.77</v>
+        <v>29.91</v>
       </c>
       <c r="C330" t="n">
-        <v>16.03</v>
+        <v>16</v>
       </c>
       <c r="D330" t="n">
         <v>1.08</v>
@@ -11741,16 +11741,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>59.44</v>
+        <v>59.57</v>
       </c>
       <c r="C333" t="n">
-        <v>30.58</v>
+        <v>30.63</v>
       </c>
       <c r="D333" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E333" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -11775,16 +11775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>36.34</v>
+        <v>36.42</v>
       </c>
       <c r="C334" t="n">
-        <v>20.26</v>
+        <v>20.3</v>
       </c>
       <c r="D334" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E334" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>18.12</v>
+        <v>18.24</v>
       </c>
       <c r="C335" t="n">
-        <v>15.89</v>
+        <v>15.88</v>
       </c>
       <c r="D335" t="n">
         <v>1.47</v>
@@ -11843,16 +11843,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>57.7</v>
+        <v>57.82</v>
       </c>
       <c r="C336" t="n">
-        <v>27.6</v>
+        <v>27.62</v>
       </c>
       <c r="D336" t="n">
         <v>1.01</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F336" t="n">
         <v>12</v>
@@ -11861,7 +11861,7 @@
         <v>21</v>
       </c>
       <c r="H336" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I336" t="n">
         <v>123</v>
@@ -11883,10 +11883,10 @@
         <v>0.73</v>
       </c>
       <c r="D337" t="n">
-        <v>4.71</v>
+        <v>4.73</v>
       </c>
       <c r="E337" t="n">
-        <v>23.51</v>
+        <v>23.78</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -11945,16 +11945,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>33.62</v>
+        <v>33.74</v>
       </c>
       <c r="C339" t="n">
-        <v>18.58</v>
+        <v>18.59</v>
       </c>
       <c r="D339" t="n">
         <v>1.11</v>
       </c>
       <c r="E339" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F339" t="n">
         <v>7.2</v>
@@ -11979,16 +11979,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>36.65</v>
+        <v>36.75</v>
       </c>
       <c r="C340" t="n">
-        <v>21.09</v>
+        <v>21.1</v>
       </c>
       <c r="D340" t="n">
         <v>1.08</v>
       </c>
       <c r="E340" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F340" t="n">
         <v>6</v>
@@ -12047,16 +12047,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>213.6</v>
+        <v>215.07</v>
       </c>
       <c r="C342" t="n">
-        <v>5071883.61</v>
+        <v>5091065.13</v>
       </c>
       <c r="D342" t="n">
         <v>-0</v>
       </c>
       <c r="E342" t="n">
-        <v>716.12</v>
+        <v>710.72</v>
       </c>
       <c r="F342" t="n">
         <v>-135999990</v>
@@ -12115,19 +12115,19 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>42.2</v>
+        <v>42.42</v>
       </c>
       <c r="C344" t="n">
-        <v>26.9</v>
+        <v>26.85</v>
       </c>
       <c r="D344" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="E344" t="n">
         <v>1.41</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G344" t="n">
         <v>9</v>
@@ -12149,16 +12149,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>35.49</v>
+        <v>35.57</v>
       </c>
       <c r="C345" t="n">
-        <v>19.05</v>
+        <v>19.07</v>
       </c>
       <c r="D345" t="n">
         <v>1.01</v>
       </c>
       <c r="E345" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -12260,7 +12260,7 @@
         <v>6.61</v>
       </c>
       <c r="E348" t="n">
-        <v>55.92</v>
+        <v>55.89</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -12285,16 +12285,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>28.33</v>
+        <v>28.4</v>
       </c>
       <c r="C349" t="n">
-        <v>13.76</v>
+        <v>13.77</v>
       </c>
       <c r="D349" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E349" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F349" t="n">
         <v>4.8</v>
@@ -12319,16 +12319,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>18.52</v>
+        <v>18.61</v>
       </c>
       <c r="C350" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="D350" t="n">
         <v>1.39</v>
       </c>
       <c r="E350" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="F350" t="n">
         <v>2</v>
@@ -12421,19 +12421,19 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>22.48</v>
+        <v>22.56</v>
       </c>
       <c r="C353" t="n">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="D353" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="E353" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="F353" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="G353" t="n">
         <v>7.2</v>
@@ -12455,16 +12455,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>47.18</v>
+        <v>47.34</v>
       </c>
       <c r="C354" t="n">
-        <v>27.56</v>
+        <v>27.57</v>
       </c>
       <c r="D354" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E354" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -12489,16 +12489,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>23.85</v>
+        <v>23.92</v>
       </c>
       <c r="C355" t="n">
-        <v>14.06</v>
+        <v>14.08</v>
       </c>
       <c r="D355" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E355" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -12523,13 +12523,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>20.78</v>
+        <v>20.89</v>
       </c>
       <c r="C356" t="n">
-        <v>15.09</v>
+        <v>15.08</v>
       </c>
       <c r="D356" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E356" t="n">
         <v>4.07</v>
@@ -12557,16 +12557,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>56.85</v>
+        <v>57</v>
       </c>
       <c r="C357" t="n">
-        <v>28.99</v>
+        <v>29.01</v>
       </c>
       <c r="D357" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E357" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F357" t="n">
         <v>3</v>
@@ -12591,16 +12591,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>28.2</v>
+        <v>28.26</v>
       </c>
       <c r="C358" t="n">
-        <v>15.35</v>
+        <v>15.37</v>
       </c>
       <c r="D358" t="n">
         <v>1.1</v>
       </c>
       <c r="E358" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="F358" t="n">
         <v>6</v>
@@ -12625,16 +12625,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>32.45</v>
+        <v>32.57</v>
       </c>
       <c r="C359" t="n">
-        <v>18.89</v>
+        <v>18.9</v>
       </c>
       <c r="D359" t="n">
         <v>1.22</v>
       </c>
       <c r="E359" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="F359" t="n">
         <v>7.2</v>
@@ -12659,16 +12659,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>41.28</v>
+        <v>41.37</v>
       </c>
       <c r="C360" t="n">
-        <v>23.02</v>
+        <v>23.05</v>
       </c>
       <c r="D360" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E360" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F360" t="n">
         <v>9</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>13.48</v>
+        <v>13.49</v>
       </c>
       <c r="C362" t="n">
         <v>8.359999999999999</v>
@@ -12795,16 +12795,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>33.54</v>
+        <v>33.59</v>
       </c>
       <c r="C364" t="n">
-        <v>17.01</v>
+        <v>17.04</v>
       </c>
       <c r="D364" t="n">
         <v>1.02</v>
       </c>
       <c r="E364" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F364" t="n">
         <v>8</v>
@@ -12829,7 +12829,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>31.77</v>
+        <v>31.9</v>
       </c>
       <c r="C365" t="n">
         <v>17.81</v>
@@ -12838,7 +12838,7 @@
         <v>1.22</v>
       </c>
       <c r="E365" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F365" t="n">
         <v>5</v>
@@ -12863,16 +12863,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>51.6</v>
+        <v>51.74</v>
       </c>
       <c r="C366" t="n">
-        <v>27.8</v>
+        <v>27.83</v>
       </c>
       <c r="D366" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="E366" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F366" t="n">
         <v>12</v>
@@ -12897,10 +12897,10 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>17.99</v>
+        <v>18.11</v>
       </c>
       <c r="C367" t="n">
-        <v>15.89</v>
+        <v>15.88</v>
       </c>
       <c r="D367" t="n">
         <v>1.44</v>
@@ -12965,16 +12965,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>29.93</v>
+        <v>30</v>
       </c>
       <c r="C369" t="n">
-        <v>17.01</v>
+        <v>17.03</v>
       </c>
       <c r="D369" t="n">
         <v>1.16</v>
       </c>
       <c r="E369" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="F369" t="n">
         <v>6</v>
@@ -12999,16 +12999,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>7.83</v>
+        <v>7.85</v>
       </c>
       <c r="C370" t="n">
         <v>4.54</v>
       </c>
       <c r="D370" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E370" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -13033,16 +13033,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>66.09</v>
+        <v>66.27</v>
       </c>
       <c r="C371" t="n">
-        <v>36.2</v>
+        <v>36.23</v>
       </c>
       <c r="D371" t="n">
         <v>1.16</v>
       </c>
       <c r="E371" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="F371" t="n">
         <v>15</v>
@@ -13101,10 +13101,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>28.33</v>
+        <v>28.46</v>
       </c>
       <c r="C373" t="n">
-        <v>17.35</v>
+        <v>17.33</v>
       </c>
       <c r="D373" t="n">
         <v>1.34</v>
@@ -13135,19 +13135,19 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>19.8</v>
+        <v>19.85</v>
       </c>
       <c r="C374" t="n">
-        <v>11.12</v>
+        <v>11.13</v>
       </c>
       <c r="D374" t="n">
         <v>1.15</v>
       </c>
       <c r="E374" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F374" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="G374" t="n">
         <v>4.8</v>
@@ -13169,19 +13169,19 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>23.27</v>
+        <v>23.36</v>
       </c>
       <c r="C375" t="n">
-        <v>16.39</v>
+        <v>16.4</v>
       </c>
       <c r="D375" t="n">
         <v>1.59</v>
       </c>
       <c r="E375" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="F375" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G375" t="n">
         <v>4.8</v>
@@ -13203,16 +13203,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>15.89</v>
+        <v>15.95</v>
       </c>
       <c r="C376" t="n">
         <v>8.5</v>
       </c>
       <c r="D376" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E376" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>1.21</v>
       </c>
       <c r="E377" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="F377" t="n">
         <v>2</v>
@@ -13441,16 +13441,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>18.58</v>
+        <v>18.65</v>
       </c>
       <c r="C383" t="n">
-        <v>15.42</v>
+        <v>15.44</v>
       </c>
       <c r="D383" t="n">
         <v>1.53</v>
       </c>
       <c r="E383" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -13518,7 +13518,7 @@
         <v>1.06</v>
       </c>
       <c r="E385" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -13543,19 +13543,19 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>29.66</v>
+        <v>29.81</v>
       </c>
       <c r="C386" t="n">
-        <v>17.44</v>
+        <v>17.41</v>
       </c>
       <c r="D386" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="E386" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F386" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G386" t="n">
         <v>9</v>
@@ -13577,10 +13577,10 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>13.2</v>
+        <v>13.28</v>
       </c>
       <c r="C387" t="n">
-        <v>10.71</v>
+        <v>10.7</v>
       </c>
       <c r="D387" t="n">
         <v>1.45</v>
@@ -13598,7 +13598,7 @@
         <v>12</v>
       </c>
       <c r="I387" t="n">
-        <v>40</v>
+        <v>40.9</v>
       </c>
       <c r="J387" t="n">
         <v>72</v>
@@ -13611,16 +13611,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-12668.43</v>
+        <v>-12762.57</v>
       </c>
       <c r="C388" t="n">
-        <v>7371685.39</v>
+        <v>7398954.56</v>
       </c>
       <c r="D388" t="n">
-        <v>-1.32</v>
+        <v>-1.31</v>
       </c>
       <c r="E388" t="n">
-        <v>760.79</v>
+        <v>755.17</v>
       </c>
       <c r="F388" t="n">
         <v>-203999964</v>
@@ -13645,16 +13645,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>14.94</v>
+        <v>14.99</v>
       </c>
       <c r="C389" t="n">
-        <v>8.460000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D389" t="n">
         <v>1.17</v>
       </c>
       <c r="E389" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -13679,13 +13679,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>10.58</v>
+        <v>10.59</v>
       </c>
       <c r="C390" t="n">
         <v>8.630000000000001</v>
       </c>
       <c r="D390" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E390" t="n">
         <v>0.02</v>
@@ -13713,16 +13713,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="C391" t="n">
-        <v>18.92</v>
+        <v>18.94</v>
       </c>
       <c r="D391" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F391" t="n">
         <v>6</v>
@@ -13747,16 +13747,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>65.76000000000001</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C392" t="n">
-        <v>37.91</v>
+        <v>37.93</v>
       </c>
       <c r="D392" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F392" t="n">
         <v>14.4</v>
@@ -13781,16 +13781,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>64.72</v>
+        <v>64.92</v>
       </c>
       <c r="C393" t="n">
-        <v>35.6</v>
+        <v>35.62</v>
       </c>
       <c r="D393" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E393" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F393" t="n">
         <v>14.4</v>
@@ -13815,16 +13815,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>54.85</v>
+        <v>55.02</v>
       </c>
       <c r="C394" t="n">
-        <v>29.42</v>
+        <v>29.43</v>
       </c>
       <c r="D394" t="n">
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="F394" t="n">
         <v>12</v>
@@ -13849,16 +13849,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>49.46</v>
+        <v>49.61</v>
       </c>
       <c r="C395" t="n">
-        <v>29.49</v>
+        <v>29.52</v>
       </c>
       <c r="D395" t="n">
         <v>1.28</v>
       </c>
       <c r="E395" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="F395" t="n">
         <v>9</v>
@@ -13883,19 +13883,19 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>75.61</v>
+        <v>75.84</v>
       </c>
       <c r="C396" t="n">
-        <v>40.58</v>
+        <v>40.6</v>
       </c>
       <c r="D396" t="n">
         <v>1.14</v>
       </c>
       <c r="E396" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F396" t="n">
-        <v>19.2</v>
+        <v>21.6</v>
       </c>
       <c r="G396" t="n">
         <v>26.4</v>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>51.69</v>
+        <v>51.87</v>
       </c>
       <c r="C397" t="n">
         <v>28.62</v>
@@ -13926,10 +13926,10 @@
         <v>1.15</v>
       </c>
       <c r="E397" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="F397" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G397" t="n">
         <v>15</v>
@@ -13951,19 +13951,19 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>36.14</v>
+        <v>36.35</v>
       </c>
       <c r="C398" t="n">
-        <v>22.55</v>
+        <v>22.49</v>
       </c>
       <c r="D398" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E398" t="n">
         <v>1.14</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G398" t="n">
         <v>9</v>
@@ -13985,16 +13985,16 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>48.92</v>
+        <v>49.09</v>
       </c>
       <c r="C399" t="n">
-        <v>29.2</v>
+        <v>29.23</v>
       </c>
       <c r="D399" t="n">
         <v>1.33</v>
       </c>
       <c r="E399" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="F399" t="n">
         <v>12</v>
@@ -14019,7 +14019,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>55.07</v>
+        <v>55.25</v>
       </c>
       <c r="C400" t="n">
         <v>29.21</v>
@@ -14028,7 +14028,7 @@
         <v>1.06</v>
       </c>
       <c r="E400" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F400" t="n">
         <v>14.4</v>
@@ -14053,16 +14053,16 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>52.28</v>
+        <v>52.44</v>
       </c>
       <c r="C401" t="n">
-        <v>31.29</v>
+        <v>31.32</v>
       </c>
       <c r="D401" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="E401" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="F401" t="n">
         <v>12</v>
@@ -14087,16 +14087,16 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>55.72</v>
+        <v>55.9</v>
       </c>
       <c r="C402" t="n">
-        <v>34.49</v>
+        <v>34.53</v>
       </c>
       <c r="D402" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="E402" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="F402" t="n">
         <v>12</v>
@@ -14121,19 +14121,19 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>27.86</v>
+        <v>28.02</v>
       </c>
       <c r="C403" t="n">
-        <v>18</v>
+        <v>17.96</v>
       </c>
       <c r="D403" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="E403" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="F403" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G403" t="n">
         <v>6</v>
@@ -14155,16 +14155,16 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>53.31</v>
+        <v>53.48</v>
       </c>
       <c r="C404" t="n">
-        <v>30.91</v>
+        <v>30.93</v>
       </c>
       <c r="D404" t="n">
         <v>1.19</v>
       </c>
       <c r="E404" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="F404" t="n">
         <v>12</v>
@@ -14189,16 +14189,16 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>51.01</v>
+        <v>51.17</v>
       </c>
       <c r="C405" t="n">
-        <v>29.14</v>
+        <v>29.16</v>
       </c>
       <c r="D405" t="n">
         <v>1.2</v>
       </c>
       <c r="E405" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="F405" t="n">
         <v>12</v>
@@ -14223,16 +14223,16 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>51.38</v>
+        <v>51.54</v>
       </c>
       <c r="C406" t="n">
-        <v>27.7</v>
+        <v>27.71</v>
       </c>
       <c r="D406" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E406" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F406" t="n">
         <v>12</v>
@@ -14257,16 +14257,16 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>59.99</v>
+        <v>60.19</v>
       </c>
       <c r="C407" t="n">
-        <v>33.12</v>
+        <v>33.13</v>
       </c>
       <c r="D407" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="E407" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="F407" t="n">
         <v>14.4</v>
@@ -14291,16 +14291,16 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>50.08</v>
+        <v>50.23</v>
       </c>
       <c r="C408" t="n">
-        <v>29.98</v>
+        <v>30</v>
       </c>
       <c r="D408" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E408" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F408" t="n">
         <v>9.6</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>72.08</v>
+        <v>72.3</v>
       </c>
       <c r="C409" t="n">
-        <v>39.8</v>
+        <v>39.83</v>
       </c>
       <c r="D409" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E409" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F409" t="n">
         <v>16.8</v>
@@ -14359,16 +14359,16 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>49.33</v>
+        <v>49.49</v>
       </c>
       <c r="C410" t="n">
-        <v>28.53</v>
+        <v>28.55</v>
       </c>
       <c r="D410" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E410" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="F410" t="n">
         <v>12</v>
@@ -14393,16 +14393,16 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>44.55</v>
+        <v>44.72</v>
       </c>
       <c r="C411" t="n">
-        <v>26.14</v>
+        <v>26.16</v>
       </c>
       <c r="D411" t="n">
         <v>1.13</v>
       </c>
       <c r="E411" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F411" t="n">
         <v>9</v>
@@ -14411,7 +14411,7 @@
         <v>12</v>
       </c>
       <c r="H411" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I411" t="n">
         <v>108</v>
@@ -14427,16 +14427,16 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>46.88</v>
+        <v>47.05</v>
       </c>
       <c r="C412" t="n">
-        <v>29.35</v>
+        <v>29.37</v>
       </c>
       <c r="D412" t="n">
         <v>1.15</v>
       </c>
       <c r="E412" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F412" t="n">
         <v>9</v>
@@ -14461,7 +14461,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>49.22</v>
+        <v>49.38</v>
       </c>
       <c r="C413" t="n">
         <v>27.01</v>
@@ -14470,7 +14470,7 @@
         <v>0.99</v>
       </c>
       <c r="E413" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F413" t="n">
         <v>9</v>
@@ -14495,16 +14495,16 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>53.48</v>
+        <v>53.7</v>
       </c>
       <c r="C414" t="n">
-        <v>34.53</v>
+        <v>34.54</v>
       </c>
       <c r="D414" t="n">
         <v>1.32</v>
       </c>
       <c r="E414" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F414" t="n">
         <v>9</v>
@@ -14513,7 +14513,7 @@
         <v>15</v>
       </c>
       <c r="H414" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I414" t="n">
         <v>141</v>
@@ -14529,16 +14529,16 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>49.4</v>
+        <v>49.57</v>
       </c>
       <c r="C415" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="D415" t="n">
         <v>1.09</v>
       </c>
       <c r="E415" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F415" t="n">
         <v>9</v>
@@ -14563,16 +14563,16 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>50.08</v>
+        <v>50.23</v>
       </c>
       <c r="C416" t="n">
-        <v>29.9</v>
+        <v>29.93</v>
       </c>
       <c r="D416" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="E416" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="F416" t="n">
         <v>9</v>
@@ -14597,16 +14597,16 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>47.83</v>
+        <v>47.98</v>
       </c>
       <c r="C417" t="n">
-        <v>27.67</v>
+        <v>27.69</v>
       </c>
       <c r="D417" t="n">
         <v>1.13</v>
       </c>
       <c r="E417" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F417" t="n">
         <v>9</v>
@@ -14631,16 +14631,16 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>46.56</v>
+        <v>46.71</v>
       </c>
       <c r="C418" t="n">
-        <v>25.15</v>
+        <v>25.16</v>
       </c>
       <c r="D418" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E418" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F418" t="n">
         <v>9</v>
@@ -14665,16 +14665,16 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>56.87</v>
+        <v>57.05</v>
       </c>
       <c r="C419" t="n">
-        <v>33.43</v>
+        <v>33.45</v>
       </c>
       <c r="D419" t="n">
         <v>1.2</v>
       </c>
       <c r="E419" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F419" t="n">
         <v>12</v>
@@ -14699,16 +14699,16 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>47.69</v>
+        <v>47.85</v>
       </c>
       <c r="C420" t="n">
         <v>25.96</v>
       </c>
       <c r="D420" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E420" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F420" t="n">
         <v>9</v>
@@ -14767,22 +14767,22 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>297.67</v>
+        <v>298.43</v>
       </c>
       <c r="C422" t="n">
-        <v>138.14</v>
+        <v>138.2</v>
       </c>
       <c r="D422" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E422" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="F422" t="n">
         <v>80</v>
       </c>
       <c r="G422" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H422" t="n">
         <v>270</v>
@@ -14835,16 +14835,16 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>402.93</v>
+        <v>404</v>
       </c>
       <c r="C424" t="n">
-        <v>180.06</v>
+        <v>180.05</v>
       </c>
       <c r="D424" t="n">
         <v>0.61</v>
       </c>
       <c r="E424" t="n">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="F424" t="n">
         <v>105</v>
@@ -14853,7 +14853,7 @@
         <v>130</v>
       </c>
       <c r="H424" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I424" t="n">
         <v>805</v>
